--- a/doc/entries_states.xlsx
+++ b/doc/entries_states.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="-80" windowWidth="19920" windowHeight="17520" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="-80" windowWidth="19920" windowHeight="17520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="45">
   <si>
     <t>オーナー</t>
     <phoneticPr fontId="1"/>
@@ -202,22 +202,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>両者コミット済、キャンセルされていない、未実施のとき可</t>
-    <rPh sb="0" eb="2">
-      <t>リョウシャ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ズミ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ミジッシ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コミット操作</t>
     <rPh sb="4" eb="6">
       <t>ソウサ</t>
@@ -245,15 +229,122 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>両者共にコミット済みでない、キャンセルされていない</t>
+    <t>提供できること</t>
+    <rPh sb="0" eb="2">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お願いしたいこと</t>
+    <rPh sb="1" eb="2">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施者</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払者</t>
+    <rPh sb="0" eb="3">
+      <t>シハライシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Offering</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Want</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Contract</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entrust</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entract</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entract</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>依頼</t>
+    <rPh sb="0" eb="2">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請負</t>
+    <rPh sb="0" eb="2">
+      <t>ウケオイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エントリー者</t>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両者共コミット済みでない、キャンセルされていない</t>
     <rPh sb="0" eb="2">
       <t>リョウシャ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>トモ</t>
     </rPh>
-    <rPh sb="8" eb="9">
+    <rPh sb="7" eb="8">
       <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両者共コミット済、キャンセルされていない、未実施のとき可</t>
+    <rPh sb="0" eb="2">
+      <t>リョウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズミ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ミジッシ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -741,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="17"/>
@@ -1299,28 +1390,100 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/entries_states.xlsx
+++ b/doc/entries_states.xlsx
@@ -1487,9 +1487,13 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.79000000000000015" right="0.79000000000000015" top="0.98" bottom="0.98" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="0" scale="98" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="0" scale="88" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="16383" man="1" pt="1"/>
+  </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="13" max="1048575" man="1"/>
   </colBreaks>
